--- a/xlsx/国家陆地面积列表_intext.xlsx
+++ b/xlsx/国家陆地面积列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="712">
   <si>
     <t>国家陆地面积列表</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国家陆地面积列表</t>
+    <t>世界政区索引</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国家陆地面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政府列表</t>
+    <t>各国政府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政體列表</t>
+    <t>各国政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B3%95%E5%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E5%8D%80%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國家地區代碼</t>
+    <t>国家地区代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國旗列表</t>
+    <t>国旗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%AD%8C%E5%88%97%E8%A1%A8</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國城市列表</t>
+    <t>各国城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%B7%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國執政黨列表</t>
+    <t>各国执政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%98%E5%AD%98%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>殘存國家</t>
+    <t>残存国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>內陸國家</t>
+    <t>内陆国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>島嶼國家列表</t>
+    <t>岛屿国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E5%A4%9A%E4%B8%AA%E5%9B%BD%E5%AE%B6%E7%9A%84%E5%B2%9B%E5%B1%BF%E5%88%97%E8%A1%A8</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>領土</t>
+    <t>领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%85%AC%E9%87%8C</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -329,9 +329,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%99%86%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>内陆国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -557,25 +554,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -719,15 +716,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
   </si>
   <si>
@@ -737,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E6%AF%9B%E9%A1%8D</t>
   </si>
   <si>
-    <t>國內生產毛額</t>
+    <t>国内生产毛额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%90%84%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
+    <t>地球科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9C%9F%E5%9C%B0%E4%BD%BF%E7%94%A8%E6%83%85%E5%86%B5%E5%88%97%E8%A1%A8</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E9%BB%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低點列表</t>
+    <t>各国最低点列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B5%B7%E5%B2%B8%E7%BA%BF%E9%95%BF%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -821,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%84%B0%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鄰國列表</t>
+    <t>各国邻国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國時區列表</t>
+    <t>各国时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>環境可持續指數</t>
+    <t>环境可持续指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%A9%E6%95%88%E6%8C%87%E6%95%B0</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國世界遺產數列表</t>
+    <t>各国世界遗产数列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Happy_Planet_Index</t>
@@ -887,19 +878,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%BE%B2%E6%A5%AD%E7%94%A2%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國農業產值列表</t>
+    <t>各国农业产值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%B0%B7%E7%89%A9%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%83%BD%E6%BA%90%E7%94%9F%E7%94%A2%E5%8F%8A%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國能源生產及消耗列表</t>
+    <t>各国能源生产及消耗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AF%8F%E5%B9%B4%E4%BA%BA%E5%9D%87%E8%83%BD%E9%87%8F%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
@@ -965,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9B%BB%E5%8A%9B%E6%B6%88%E8%80%97%E6%8E%92%E5%90%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家電力消耗排名列表</t>
+    <t>国家电力消耗排名列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%99%BC%E9%9B%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國發電量列表</t>
+    <t>各国发电量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%9F%B3%E6%B2%B9</t>
@@ -1079,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%9F%BD%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國矽產量列表</t>
+    <t>各国矽产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%BB%E7%9F%B3</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8B%B0%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鋰產量列表</t>
+    <t>各国锂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%94%8C%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8A%80%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國銀產量列表</t>
+    <t>各国银产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%BB%84%E9%87%91%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1145,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%89%91%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鉑產量列表</t>
+    <t>各国铂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8E%82%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鎂產量列表</t>
+    <t>各国镁产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%93%8B%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1175,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%85%AC%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -1223,37 +1214,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家鐵路里程列表</t>
+    <t>国家铁路里程列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%90%B5%E8%B7%AF%E5%88%A9%E7%94%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鐵路利用列表</t>
+    <t>各国铁路利用列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>高速鐵路線列表</t>
+    <t>高速铁路线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E5%9C%B0%E9%90%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市地鐵列表</t>
+    <t>世界各城市地铁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A%E5%B9%B4%E4%B9%98%E5%AE%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界城市軌道交通年乘客量列表</t>
+    <t>世界城市轨道交通年乘客量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E8%B7%AF%E9%9D%A2%E9%9B%BB%E8%BB%8A%E8%88%87%E8%BC%95%E8%BB%8C%E7%B3%BB%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市路面電車與輕軌系統列表</t>
+    <t>世界各城市路面电车与轻轨系统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B0%B4%E8%B7%AF%E6%80%BB%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -1265,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%95%86%E8%88%B9%E5%99%B8%E4%BD%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國商船噸位列表</t>
+    <t>各国商船吨位列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0%E6%9C%BA%E5%9C%BA%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1283,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BA%E5%AE%9A%E7%94%B5%E8%AF%9D%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F%E6%99%AE%E5%8F%8A%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國智慧型手機普及率列表</t>
+    <t>各国智慧型手机普及率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%92%E8%81%94%E7%BD%91%E4%BD%BF%E7%94%A8%E8%80%85%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -1337,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1900%E5%B9%B4%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
@@ -1349,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>1950年國家人口列表</t>
+    <t>1950年国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%87%AA%E7%84%B6%E5%A2%9E%E9%95%BF%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -1361,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9F%8E%E5%B8%82%E5%8C%96%E6%AF%94%E7%8E%87</t>
@@ -1409,19 +1400,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%95%86%E8%88%87%E5%9C%8B%E6%B0%91%E8%B2%A1%E5%AF%8C</t>
   </si>
   <si>
-    <t>智商與國民財富</t>
+    <t>智商与国民财富</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>各國諾貝爾獎得主人數</t>
+    <t>各国诺贝尔奖得主人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>衛生</t>
+    <t>卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%87%BA%E7%94%9F%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -1451,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -1463,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E8%BA%AB%E9%AB%98</t>
   </si>
   <si>
-    <t>人類身高</t>
+    <t>人类身高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A9%B4%E5%84%BF%E6%AD%BB%E4%BA%A1%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E6%88%90%E6%9E%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國醫療衛生成果列表</t>
+    <t>各国医疗卫生成果列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -1547,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -1583,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%88%87%E7%8D%A8%E8%A3%81%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>民主與獨裁指數</t>
+    <t>民主与独裁指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E8%B4%BF%E6%8C%87%E6%95%B0</t>
@@ -1595,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>貪污感知指數</t>
+    <t>贪污感知指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%B4%A5%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -1613,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AF%A6%E5%8A%9B%E7%B6%9C%E5%90%88%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>國家實力綜合指數</t>
+    <t>国家实力综合指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%8A%9B</t>
   </si>
   <si>
-    <t>軍事力</t>
+    <t>军事力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F%E5%88%97%E8%A1%A8</t>
@@ -1631,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A%E5%90%84%E5%9C%8B%E5%85%B5%E5%8A%9B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國維和部隊各國兵力列表</t>
+    <t>联合国维和部队各国兵力列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%A2%84%E7%AE%97%E5%88%97%E8%A1%A8</t>
@@ -1643,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%81%E6%9C%89%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>核武器擁有國列表</t>
+    <t>核武器拥有国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%AD%A6%E5%AF%9F%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1655,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>沒有軍隊的國家列表</t>
+    <t>没有军队的国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E8%A3%85%E5%A4%87%E6%B0%B4%E5%B9%B3</t>
@@ -1703,25 +1694,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國死刑列表</t>
+    <t>各国死刑列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球和平指數</t>
+    <t>全球和平指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球恐怖主義指數</t>
+    <t>全球恐怖主义指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
@@ -1781,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%84%B2%E8%93%84%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国儲蓄率列表</t>
+    <t>各国储蓄率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -1793,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%AB%B6%E7%88%AD%E5%8A%9B%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球競爭力報告</t>
+    <t>全球竞争力报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%A7%E6%9D%83%E6%8C%87%E6%95%B0</t>
@@ -1829,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低工資列表</t>
+    <t>各国最低工资列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%88%BF%E4%BB%B7%E6%94%B6%E5%85%A5%E6%AF%94%E5%88%97%E8%A1%A8</t>
@@ -1841,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A%E8%B2%A8%E5%B9%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>流通貨幣列表</t>
+    <t>流通货币列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A0%94%E7%A9%B6%E4%B8%8E%E5%BC%80%E5%8F%91%E7%BB%8F%E8%B4%B9%E5%88%97%E8%A1%A8</t>
@@ -1901,25 +1892,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BF%A1%E7%94%A8%E8%A9%95%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國信用評級列表</t>
+    <t>各国信用评级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%A4%96%E5%8C%AF%E5%84%B2%E5%82%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國外匯儲備列表</t>
+    <t>各国外汇储备列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%84%B2%E5%82%99</t>
   </si>
   <si>
-    <t>黃金儲備</t>
+    <t>黄金储备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6%E7%9A%84%E5%A4%96%E9%83%A8%E8%B3%87%E7%94%A2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>主權國家的外部資產列表</t>
+    <t>主权国家的外部资产列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_countries_by_sovereign_wealth_funds</t>
@@ -1937,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C%E6%9C%80%E5%84%AA%E6%83%A0%E5%88%A9%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国商业银行最優惠利率列表</t>
+    <t>各国商业银行最优惠利率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
@@ -1991,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9B%BA%E5%AE%9A%E6%8A%95%E8%B3%87%E7%B8%BD%E9%A1%8D%E8%88%87GDP%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國固定投資總額與GDP比例列表</t>
+    <t>各国固定投资总额与GDP比例列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
@@ -2015,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E4%B9%B3%E9%A1%9E%E6%B6%88%E8%B2%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國人均乳類消費量列表</t>
+    <t>各国人均乳类消费量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E7%83%9F%E8%8D%89%E6%B6%88%E8%B4%B9%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2051,7 +2042,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E4%B8%BB%E8%BE%A6%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>奧林匹克運動會主辦城市列表</t>
+    <t>奥林匹克运动会主办城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E5%A5%96%E7%89%8C%E7%BB%9F%E8%AE%A1</t>
@@ -2063,19 +2054,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際足總世界排名</t>
+    <t>国际足总世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E4%B8%BB%E8%BE%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>世界盃主辦國</t>
+    <t>世界杯主办国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽列表</t>
+    <t>世界杯足球赛决赛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
@@ -2087,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際棒球總會世界排名</t>
+    <t>国际棒球总会世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
@@ -2111,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%80%A7%E5%88%A5%E5%B7%AE%E8%B7%9D%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球性別差距報告</t>
+    <t>全球性别差距报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%97%85%E6%B8%B8%E6%8E%92%E5%90%8D</t>
@@ -2123,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%BF%AB%E6%A8%82%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>世界快樂報告</t>
+    <t>世界快乐报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%B9%B8%E7%A6%8F%E6%80%BB%E5%80%BC</t>
@@ -2135,13 +2126,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A5%BD%E7%94%9F%E6%B4%BB%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>美好生活指數</t>
+    <t>美好生活指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E8%89%AF%E5%9C%8B%E5%AE%B6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>優良國家指數</t>
+    <t>优良国家指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E8%BF%9B%E6%AD%A5%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
@@ -2159,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%81%B2%E8%AD%BD%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>各國聲譽排名</t>
+    <t>各国声誉排名</t>
   </si>
 </sst>
 </file>
@@ -4038,7 +4029,7 @@
         <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4064,10 +4055,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4093,10 +4084,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4122,10 +4113,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4151,10 +4142,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4180,10 +4171,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4209,10 +4200,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4238,10 +4229,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4267,10 +4258,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4296,10 +4287,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4325,10 +4316,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4354,10 +4345,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4383,10 +4374,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4412,10 +4403,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4441,10 +4432,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4470,10 +4461,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4499,10 +4490,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4528,10 +4519,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4557,10 +4548,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4586,10 +4577,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4615,10 +4606,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4644,10 +4635,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4673,10 +4664,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4702,10 +4693,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4731,10 +4722,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4760,10 +4751,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4789,10 +4780,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4818,10 +4809,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4847,10 +4838,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4876,10 +4867,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4905,10 +4896,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4934,10 +4925,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4963,10 +4954,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4992,10 +4983,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5021,10 +5012,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5050,10 +5041,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5079,10 +5070,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5108,10 +5099,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5137,10 +5128,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5166,10 +5157,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5195,10 +5186,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5224,10 +5215,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5253,10 +5244,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5282,10 +5273,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5311,10 +5302,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5340,10 +5331,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5369,10 +5360,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5398,10 +5389,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5427,10 +5418,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5456,10 +5447,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5485,10 +5476,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5514,10 +5505,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5543,10 +5534,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5572,10 +5563,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5601,10 +5592,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5630,10 +5621,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5659,10 +5650,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5688,10 +5679,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5717,10 +5708,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5746,10 +5737,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5775,10 +5766,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5804,10 +5795,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5833,10 +5824,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5862,10 +5853,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5891,10 +5882,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5920,10 +5911,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5949,10 +5940,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6007,10 +5998,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6036,10 +6027,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6065,10 +6056,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6094,10 +6085,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6123,10 +6114,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6152,10 +6143,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6210,10 +6201,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6239,10 +6230,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6297,10 +6288,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6326,10 +6317,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6355,10 +6346,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6384,10 +6375,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6413,10 +6404,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6442,10 +6433,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6471,10 +6462,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6500,10 +6491,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6529,10 +6520,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6558,10 +6549,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6587,10 +6578,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6616,10 +6607,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6645,10 +6636,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6674,10 +6665,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6703,10 +6694,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6732,10 +6723,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6761,10 +6752,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6790,10 +6781,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6819,10 +6810,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6848,10 +6839,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6877,10 +6868,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6906,10 +6897,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6935,10 +6926,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6964,10 +6955,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6993,10 +6984,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7022,10 +7013,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7051,10 +7042,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7080,10 +7071,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7109,10 +7100,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7138,10 +7129,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7167,10 +7158,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7196,10 +7187,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7225,10 +7216,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7254,10 +7245,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7283,10 +7274,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7312,10 +7303,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>8</v>
@@ -7341,10 +7332,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7370,10 +7361,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7399,10 +7390,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7428,10 +7419,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7457,10 +7448,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7486,10 +7477,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7515,10 +7506,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7544,10 +7535,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7573,10 +7564,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7602,10 +7593,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7631,10 +7622,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7660,10 +7651,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7689,10 +7680,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7718,10 +7709,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7747,10 +7738,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7776,10 +7767,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7805,10 +7796,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -7834,10 +7825,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7863,10 +7854,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7892,10 +7883,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7921,10 +7912,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7950,10 +7941,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7979,10 +7970,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8008,10 +7999,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8037,10 +8028,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8066,10 +8057,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8095,10 +8086,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8124,10 +8115,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8153,10 +8144,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8182,10 +8173,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8211,10 +8202,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8240,10 +8231,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8269,10 +8260,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8298,10 +8289,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8327,10 +8318,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8356,10 +8347,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8385,10 +8376,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8414,10 +8405,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8443,10 +8434,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8472,10 +8463,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8501,10 +8492,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8530,10 +8521,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8559,10 +8550,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8588,10 +8579,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8617,10 +8608,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8646,10 +8637,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8675,10 +8666,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8704,10 +8695,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8733,10 +8724,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8762,10 +8753,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8791,10 +8782,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8820,10 +8811,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8849,10 +8840,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8878,10 +8869,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8907,10 +8898,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8936,10 +8927,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8965,10 +8956,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8994,10 +8985,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9023,10 +9014,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9052,10 +9043,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9110,10 +9101,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9139,10 +9130,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9168,10 +9159,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9197,10 +9188,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9226,10 +9217,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9255,10 +9246,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9284,10 +9275,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9313,10 +9304,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9342,10 +9333,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9371,10 +9362,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9400,10 +9391,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9429,10 +9420,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9458,10 +9449,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9487,10 +9478,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9516,10 +9507,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9545,10 +9536,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9574,10 +9565,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9603,10 +9594,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9632,10 +9623,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9661,10 +9652,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9690,10 +9681,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9719,10 +9710,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9748,10 +9739,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9777,10 +9768,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9806,10 +9797,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9835,10 +9826,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9864,10 +9855,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9893,10 +9884,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9922,10 +9913,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9951,10 +9942,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9980,10 +9971,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10009,10 +10000,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10038,10 +10029,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10067,10 +10058,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10096,10 +10087,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10125,10 +10116,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10154,10 +10145,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10183,10 +10174,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F265" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10212,10 +10203,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10241,10 +10232,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10270,10 +10261,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10299,10 +10290,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10328,10 +10319,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10357,10 +10348,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10386,10 +10377,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10415,10 +10406,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10444,10 +10435,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10473,10 +10464,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10502,10 +10493,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10531,10 +10522,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10560,10 +10551,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10589,10 +10580,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10618,10 +10609,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10647,10 +10638,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10676,10 +10667,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10705,10 +10696,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10734,10 +10725,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10763,10 +10754,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10792,10 +10783,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10821,10 +10812,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10850,10 +10841,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10879,10 +10870,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10908,10 +10899,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10937,10 +10928,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10966,10 +10957,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G292" t="n">
         <v>27</v>
@@ -10995,10 +10986,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11024,10 +11015,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11053,10 +11044,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11082,10 +11073,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11111,10 +11102,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G297" t="n">
         <v>8</v>
@@ -11140,10 +11131,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11169,10 +11160,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11198,10 +11189,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11227,10 +11218,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11256,10 +11247,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11285,10 +11276,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11314,10 +11305,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11343,10 +11334,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11372,10 +11363,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11401,10 +11392,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11430,10 +11421,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11459,10 +11450,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11488,10 +11479,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11517,10 +11508,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11546,10 +11537,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11575,10 +11566,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11604,10 +11595,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11633,10 +11624,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11662,10 +11653,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11691,10 +11682,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11720,10 +11711,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11749,10 +11740,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11778,10 +11769,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11807,10 +11798,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11836,10 +11827,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11865,10 +11856,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11894,10 +11885,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11923,10 +11914,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11952,10 +11943,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11981,10 +11972,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12010,10 +12001,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12039,10 +12030,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12068,10 +12059,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12097,10 +12088,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12126,10 +12117,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12155,10 +12146,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12184,10 +12175,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12213,10 +12204,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12242,10 +12233,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -12271,10 +12262,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12300,10 +12291,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12329,10 +12320,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12358,10 +12349,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12387,10 +12378,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12416,10 +12407,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12445,10 +12436,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12474,10 +12465,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12503,10 +12494,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12532,10 +12523,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12561,10 +12552,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12590,10 +12581,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12619,10 +12610,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12648,10 +12639,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12677,10 +12668,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12706,10 +12697,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12735,10 +12726,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12764,10 +12755,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12793,10 +12784,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12822,10 +12813,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12851,10 +12842,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12880,10 +12871,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12909,10 +12900,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12938,10 +12929,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12967,10 +12958,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12996,10 +12987,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13025,10 +13016,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
